--- a/nba_draft.xlsx
+++ b/nba_draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\nba_draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03B466A-196B-4582-AED5-44070565366A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E7EDB1-4C5F-4480-A385-CF094F8ECEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B492DA17-8B4D-4297-8577-98C1F93CE577}"/>
   </bookViews>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D90" sqref="D10:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1101,7 +1101,7 @@
         <v>99</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>215</v>
@@ -1118,7 +1118,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>215</v>
@@ -1135,7 +1135,7 @@
         <v>101</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>215</v>
@@ -1152,7 +1152,7 @@
         <v>102</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>215</v>
@@ -1169,7 +1169,7 @@
         <v>103</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>215</v>
@@ -1186,7 +1186,7 @@
         <v>104</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>215</v>
@@ -1203,7 +1203,7 @@
         <v>105</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>215</v>
@@ -1220,7 +1220,7 @@
         <v>106</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>215</v>
@@ -1237,7 +1237,7 @@
         <v>107</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
         <v>215</v>
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
         <v>215</v>
@@ -1271,7 +1271,7 @@
         <v>109</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>215</v>
@@ -1288,7 +1288,7 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
         <v>215</v>
@@ -1305,7 +1305,7 @@
         <v>111</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
         <v>215</v>
@@ -1322,7 +1322,7 @@
         <v>112</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>215</v>
@@ -1339,7 +1339,7 @@
         <v>113</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
         <v>215</v>
@@ -1356,7 +1356,7 @@
         <v>114</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>215</v>
@@ -1373,7 +1373,7 @@
         <v>115</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
         <v>215</v>
@@ -1390,7 +1390,7 @@
         <v>116</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>215</v>
@@ -1407,7 +1407,7 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>215</v>
@@ -1424,7 +1424,7 @@
         <v>118</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
         <v>215</v>
@@ -1441,7 +1441,7 @@
         <v>43</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
         <v>215</v>
@@ -1458,7 +1458,7 @@
         <v>119</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
         <v>215</v>
@@ -1475,7 +1475,7 @@
         <v>120</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>215</v>
@@ -1492,7 +1492,7 @@
         <v>121</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
         <v>215</v>
@@ -1509,7 +1509,7 @@
         <v>122</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>215</v>
@@ -1526,7 +1526,7 @@
         <v>123</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
         <v>215</v>
@@ -1543,7 +1543,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
         <v>215</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>215</v>
@@ -1577,7 +1577,7 @@
         <v>126</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
         <v>215</v>
@@ -1594,7 +1594,7 @@
         <v>127</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
         <v>215</v>
@@ -1611,7 +1611,7 @@
         <v>128</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
         <v>215</v>
@@ -1628,7 +1628,7 @@
         <v>129</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
         <v>215</v>
@@ -1645,7 +1645,7 @@
         <v>130</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
         <v>215</v>
@@ -1662,7 +1662,7 @@
         <v>131</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
         <v>215</v>
@@ -1679,7 +1679,7 @@
         <v>132</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
         <v>215</v>
@@ -1696,7 +1696,7 @@
         <v>133</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>215</v>
@@ -1713,7 +1713,7 @@
         <v>134</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>215</v>
@@ -1730,7 +1730,7 @@
         <v>135</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
         <v>215</v>
@@ -1747,7 +1747,7 @@
         <v>136</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
         <v>215</v>
@@ -1764,7 +1764,7 @@
         <v>137</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
         <v>215</v>
@@ -1781,7 +1781,7 @@
         <v>138</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>215</v>
@@ -1798,7 +1798,7 @@
         <v>139</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
         <v>215</v>
@@ -1815,7 +1815,7 @@
         <v>140</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
         <v>215</v>
@@ -1832,7 +1832,7 @@
         <v>141</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>215</v>
@@ -1849,7 +1849,7 @@
         <v>142</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
         <v>215</v>
@@ -1866,7 +1866,7 @@
         <v>143</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>215</v>
@@ -1883,7 +1883,7 @@
         <v>144</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
         <v>215</v>
@@ -1900,7 +1900,7 @@
         <v>145</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
         <v>215</v>
@@ -1917,7 +1917,7 @@
         <v>146</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
         <v>215</v>
@@ -1934,7 +1934,7 @@
         <v>147</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
         <v>215</v>
@@ -1951,7 +1951,7 @@
         <v>148</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>215</v>
@@ -1968,7 +1968,7 @@
         <v>149</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
         <v>215</v>
@@ -1985,7 +1985,7 @@
         <v>150</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
         <v>215</v>
@@ -2002,7 +2002,7 @@
         <v>151</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
         <v>215</v>
@@ -2019,7 +2019,7 @@
         <v>152</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
         <v>215</v>
@@ -2036,7 +2036,7 @@
         <v>153</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
         <v>215</v>
@@ -2053,7 +2053,7 @@
         <v>154</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
         <v>215</v>
@@ -2070,7 +2070,7 @@
         <v>155</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
         <v>215</v>
@@ -2087,7 +2087,7 @@
         <v>156</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
         <v>215</v>
@@ -2104,7 +2104,7 @@
         <v>157</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
         <v>215</v>
@@ -2121,7 +2121,7 @@
         <v>158</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
         <v>215</v>
@@ -2138,7 +2138,7 @@
         <v>159</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
         <v>215</v>
@@ -2155,7 +2155,7 @@
         <v>160</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
         <v>215</v>
@@ -2172,7 +2172,7 @@
         <v>161</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
         <v>215</v>
@@ -2189,7 +2189,7 @@
         <v>162</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
         <v>215</v>
@@ -2206,7 +2206,7 @@
         <v>163</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
         <v>215</v>
@@ -2223,7 +2223,7 @@
         <v>164</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
         <v>215</v>
@@ -2240,7 +2240,7 @@
         <v>165</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
         <v>215</v>
@@ -2257,7 +2257,7 @@
         <v>166</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
         <v>215</v>
@@ -2274,7 +2274,7 @@
         <v>167</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
         <v>215</v>
@@ -2291,7 +2291,7 @@
         <v>168</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
         <v>215</v>
@@ -2308,7 +2308,7 @@
         <v>169</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s">
         <v>215</v>
@@ -2325,7 +2325,7 @@
         <v>170</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>215</v>
@@ -2342,7 +2342,7 @@
         <v>171</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
         <v>215</v>
@@ -2359,7 +2359,7 @@
         <v>172</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
         <v>215</v>
@@ -2376,7 +2376,7 @@
         <v>173</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s">
         <v>215</v>
@@ -2393,7 +2393,7 @@
         <v>174</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
         <v>215</v>
@@ -2410,7 +2410,7 @@
         <v>175</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
         <v>215</v>
@@ -2427,7 +2427,7 @@
         <v>176</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
         <v>215</v>
@@ -2444,7 +2444,7 @@
         <v>177</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
         <v>215</v>
@@ -2461,7 +2461,7 @@
         <v>178</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
         <v>215</v>
@@ -2478,7 +2478,7 @@
         <v>179</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
         <v>215</v>
@@ -2495,7 +2495,7 @@
         <v>180</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
         <v>215</v>
@@ -2512,7 +2512,7 @@
         <v>181</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
         <v>215</v>
@@ -2529,7 +2529,7 @@
         <v>182</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
         <v>215</v>
@@ -2546,7 +2546,7 @@
         <v>183</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
         <v>215</v>
@@ -2563,7 +2563,7 @@
         <v>184</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>215</v>
@@ -2580,7 +2580,7 @@
         <v>185</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
         <v>215</v>
@@ -2597,7 +2597,7 @@
         <v>186</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
         <v>215</v>
@@ -2614,7 +2614,7 @@
         <v>187</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>215</v>
@@ -2631,7 +2631,7 @@
         <v>188</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
         <v>215</v>
@@ -2648,7 +2648,7 @@
         <v>189</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
         <v>215</v>
@@ -2665,7 +2665,7 @@
         <v>190</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>215</v>
@@ -2682,7 +2682,7 @@
         <v>191</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>215</v>
@@ -2699,7 +2699,7 @@
         <v>192</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>215</v>
@@ -2716,7 +2716,7 @@
         <v>193</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>215</v>
@@ -2733,7 +2733,7 @@
         <v>194</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
         <v>215</v>
@@ -2750,7 +2750,7 @@
         <v>195</v>
       </c>
       <c r="B99">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
         <v>215</v>
@@ -2767,7 +2767,7 @@
         <v>196</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
         <v>215</v>
@@ -2784,7 +2784,7 @@
         <v>197</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
         <v>215</v>

--- a/nba_draft.xlsx
+++ b/nba_draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\nba_draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E7EDB1-4C5F-4480-A385-CF094F8ECEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217323A9-6029-47A2-B09E-F5B146A385E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B492DA17-8B4D-4297-8577-98C1F93CE577}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="219">
   <si>
     <t>Age</t>
   </si>
@@ -72,9 +72,6 @@
     <t>FT%</t>
   </si>
   <si>
-    <t>FTR</t>
-  </si>
-  <si>
     <t>Ceiling</t>
   </si>
   <si>
@@ -108,12 +105,6 @@
     <t>SF/PF</t>
   </si>
   <si>
-    <t>JL Bourg</t>
-  </si>
-  <si>
-    <t>Perth Wildcats</t>
-  </si>
-  <si>
     <t>PG/SG</t>
   </si>
   <si>
@@ -672,9 +663,6 @@
     <t>7'0</t>
   </si>
   <si>
-    <t>7'5</t>
-  </si>
-  <si>
     <t>6'1</t>
   </si>
   <si>
@@ -688,6 +676,24 @@
   </si>
   <si>
     <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>ESPN</t>
+  </si>
+  <si>
+    <t>Bourg</t>
+  </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>7'4</t>
+  </si>
+  <si>
+    <t>Tristan Da Silva</t>
+  </si>
+  <si>
+    <t>31+</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1070,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D90" sqref="D10:D90"/>
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1084,1716 +1090,1716 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B11">
         <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B12">
         <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B13">
         <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B14">
         <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B15">
         <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B16">
         <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B17">
         <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18">
         <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B19">
         <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B20">
         <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B21">
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B23">
         <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B24">
         <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B25">
         <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D25" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B26">
         <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B27">
         <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B28">
         <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B29">
         <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D29" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B30">
         <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B31">
         <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B32">
         <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B33">
         <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B34">
         <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D34" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B35">
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B36">
         <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B37">
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B38">
         <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B39">
         <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B40">
         <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B41">
         <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B42">
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B43">
         <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B44">
         <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B45">
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B46">
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B47">
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B48">
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B49">
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B50">
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B51">
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B52">
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B53">
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B54">
         <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D54" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E54" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B55">
         <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E55" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B56">
         <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B57">
         <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E57" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B58">
         <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D58" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B59">
         <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E59" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B60">
         <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B61">
         <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B62">
         <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D62" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E62" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B63">
         <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B64">
         <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D64" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B65">
         <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E65" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B66">
         <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E66" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B67">
         <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D67" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E67" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B68">
         <v>34</v>
       </c>
       <c r="C68" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B69">
         <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D69" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B70">
         <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D70" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B71">
         <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D71" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B72">
         <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E72" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B73">
         <v>29</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E73" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B74">
         <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E74" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B75">
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B76">
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E76" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B77">
         <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E77" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B78">
         <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B79">
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D79" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B80">
         <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D80" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E80" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B81">
         <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D81" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B82">
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D82" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B83">
         <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D83" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E83" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B84">
         <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D84" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E84" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B85">
         <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E85" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B86">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D86" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B87">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D87" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E87" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B88">
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E88" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B89">
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D89" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E89" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B90">
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D90" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B91">
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D91" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E91" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B92">
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D92" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E92" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B93">
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D93" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E93" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B94">
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D94" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E94" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B95">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D95" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B96">
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D96" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E96" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D97" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E97" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D98" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E98" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D99" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D100" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D101" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E101" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +2813,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2821,7 +2827,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2854,1155 +2860,1155 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D3">
         <v>225</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>29.8</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D4">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>7.4</v>
+      </c>
+      <c r="I4">
+        <v>1.5</v>
+      </c>
+      <c r="J4">
+        <v>63.9</v>
+      </c>
+      <c r="K4">
         <v>25</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
-        <v>0</v>
+        <v>58.3</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D5">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>52.1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>83.1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D6">
         <v>210</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D7">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>47.2</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>75.5</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D8">
         <v>210</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>45.8</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>77.2</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D9">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D10">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>76.7</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D11">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>87.8</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D12">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>55.2</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D13">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D14">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>68.2</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>34.1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D16">
         <v>205</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>41.4</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="D17">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>62.3</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D18">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>49.3</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>83.5</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D19">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>46.6</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>76.5</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D20">
         <v>195</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>78.5</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D21">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>42.6</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>77.8</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D22">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>209</v>
       </c>
       <c r="D23">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>61.4</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>61.6</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D24">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>58.6</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>63.4</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D25">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>16.3</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>67.3</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D26">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>49.6</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>85.1</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D27">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D28">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>44.8</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>38.1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>87.6</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D29">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>54.8</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>53.2</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -4010,2951 +4016,1481 @@
         <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D30">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>44.3</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>79.3</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31">
         <v>210</v>
       </c>
-      <c r="D31">
-        <v>230</v>
-      </c>
       <c r="E31">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>50.2</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D32">
-        <v>300</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="M32" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D33">
-        <v>210</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M33" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D34">
-        <v>200</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="M34" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D35">
-        <v>165</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="M35" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D36">
-        <v>225</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="M36" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D37">
-        <v>215</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="M37" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D38">
         <v>185</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="M38" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D39">
         <v>195</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
       <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="M39" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D40">
         <v>200</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="M40" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D41">
         <v>235</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="M41" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D42">
         <v>215</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="M42" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D43">
         <v>210</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="M43" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D44">
         <v>190</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
       <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="M44" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D45">
         <v>200</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="M45" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D46">
         <v>210</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="M46" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D47">
         <v>225</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="F47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="M47" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D48">
         <v>205</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="M48" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D49">
         <v>230</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="M49" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D50">
         <v>210</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
       <c r="F50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="M50" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D51">
         <v>195</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M51" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D52">
         <v>205</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="M52" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D53">
         <v>235</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
       <c r="F53" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="M53" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D54">
         <v>240</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="M54" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D55">
         <v>210</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="M55" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D56">
         <v>235</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="M56" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D57">
         <v>240</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="M57" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D58">
         <v>245</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M58" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D59">
         <v>210</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="M59" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D60">
         <v>200</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="M60" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D61">
         <v>205</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="M61" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D62">
         <v>220</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="M62" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D63">
         <v>235</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M63" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D64">
         <v>220</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
       <c r="F64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="M64" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D65">
         <v>200</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M65" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D66">
         <v>260</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="M66" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67">
         <v>235</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="M67" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D68">
         <v>205</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
       <c r="F68" t="s">
-        <v>48</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="M68" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D69">
         <v>255</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="M69" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D70">
         <v>245</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="M70" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71">
         <v>180</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="M71" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D72">
         <v>210</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="M72" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D73">
         <v>185</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M73" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D74">
         <v>200</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="M74" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D75">
         <v>205</v>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="M75" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D76">
         <v>170</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="M76" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B77" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D77">
         <v>180</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="M77" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D78">
         <v>220</v>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M78" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D79">
         <v>245</v>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M79" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D80">
         <v>180</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="M80" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D81">
         <v>200</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
       <c r="F81" t="s">
-        <v>48</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="M81" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D82">
         <v>195</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
       <c r="F82" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="M82" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D83">
         <v>235</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
       <c r="F83" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="M83" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D84">
         <v>200</v>
       </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
       <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="M84" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D85">
         <v>200</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="M85" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D86">
         <v>235</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
       <c r="F86" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="M86" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D87">
         <v>150</v>
       </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="M87" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D88">
         <v>210</v>
       </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="M88" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D89">
         <v>210</v>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M89" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D90">
         <v>190</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="M90" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D91">
         <v>185</v>
       </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="M91" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D92">
         <v>215</v>
       </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M92" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D93">
         <v>210</v>
       </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="M93" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D94">
         <v>225</v>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
       <c r="F94" t="s">
-        <v>48</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="M94" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D95">
         <v>240</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="M95" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D96">
         <v>210</v>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="M96" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D97">
         <v>180</v>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
       <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="M97" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D98">
         <v>195</v>
       </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="M98" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D99">
-        <v>255</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M99" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D100">
         <v>195</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="M100" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D101">
         <v>255</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="M101" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
